--- a/Lab01/SortStatistics.xlsx
+++ b/Lab01/SortStatistics.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
   <si>
     <t>size</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>QuickSorter</t>
+  </si>
+  <si>
+    <t>BubbleDownSorter</t>
+  </si>
+  <si>
+    <t>BubbleUpSorter</t>
   </si>
 </sst>
 </file>
@@ -4222,132 +4228,132 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0178206</v>
+        <v>0.0184698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0512983</v>
+        <v>0.0364752</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0269361</v>
+        <v>0.0291843</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0296462</v>
+        <v>0.0254887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0480853</v>
+        <v>0.0427268</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0639067</v>
+        <v>0.063917</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0897291</v>
+        <v>0.0893827</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1207842</v>
+        <v>0.1225319</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1556786</v>
+        <v>0.1546803</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1924336</v>
+        <v>0.1953797</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2362973</v>
+        <v>0.2433855</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2832611</v>
+        <v>0.2896666</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3356399</v>
+        <v>0.3350394</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3958152</v>
+        <v>0.3906722</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4497979</v>
+        <v>0.4494951</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.51778</v>
+        <v>0.5184216</v>
       </c>
       <c r="R2" t="n">
-        <v>0.585549</v>
+        <v>0.5922497</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6592874</v>
+        <v>0.6560256</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7437068</v>
+        <v>0.7430447</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8205427</v>
+        <v>0.8147813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0120617</v>
+        <v>0.0117229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0410433</v>
+        <v>0.0328541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0191884</v>
+        <v>0.0162782</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0265974</v>
+        <v>0.0250294</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0424316</v>
+        <v>0.0423803</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0635885</v>
+        <v>0.0636731</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0892158</v>
+        <v>0.0890798</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1196242</v>
+        <v>0.1203839</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1546136</v>
+        <v>0.1535845</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1928853</v>
+        <v>0.1923181</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2345214</v>
+        <v>0.234814</v>
       </c>
       <c r="M3" t="n">
-        <v>0.280895</v>
+        <v>0.2824707</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3346313</v>
+        <v>0.3328375</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3948323</v>
+        <v>0.3896714</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4625141</v>
+        <v>0.4542095</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5249016</v>
+        <v>0.5144386</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5946518</v>
+        <v>0.5813659</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6668452</v>
+        <v>0.6572241</v>
       </c>
       <c r="T3" t="n">
-        <v>0.735569</v>
+        <v>0.7344424</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8253161</v>
+        <v>0.8188156</v>
       </c>
     </row>
     <row r="4">
@@ -4355,64 +4361,64 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4.388E-4</v>
+        <v>4.465E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0010419</v>
+        <v>0.001047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0017835</v>
+        <v>0.001822</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0025175</v>
+        <v>0.0025252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0032695</v>
+        <v>0.0032643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0041318</v>
+        <v>0.0041061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0037468</v>
+        <v>0.0039803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0017913</v>
+        <v>0.0020684</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00184</v>
+        <v>0.0018477</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0024226</v>
+        <v>0.0020556</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0022891</v>
+        <v>0.0022866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0024893</v>
+        <v>0.002497</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0027125</v>
+        <v>0.0027152</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0029281</v>
+        <v>0.0033849</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0039598</v>
+        <v>0.0031386</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0033772</v>
+        <v>0.0036698</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0046835</v>
+        <v>0.0051814</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0056767</v>
+        <v>0.0056561</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0103602</v>
+        <v>0.0057922</v>
       </c>
       <c r="U4" t="n">
-        <v>3.413E-4</v>
+        <v>0.0013319</v>
       </c>
     </row>
     <row r="5">
@@ -4420,64 +4426,64 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0054996</v>
+        <v>0.0058332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0203432</v>
+        <v>0.0052635</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0278523</v>
+        <v>0.0069496</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0069547</v>
+        <v>0.0096186</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0091258</v>
+        <v>0.0126442</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0106195</v>
+        <v>0.0089693</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0129419</v>
+        <v>0.0074089</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0147718</v>
+        <v>0.008728</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0161935</v>
+        <v>0.0096802</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0164219</v>
+        <v>0.0114355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0105835</v>
+        <v>0.0127084</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0115972</v>
+        <v>0.0136451</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0205588</v>
+        <v>0.0147512</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0152747</v>
+        <v>0.0255786</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0142354</v>
+        <v>0.0214288</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0130446</v>
+        <v>0.0185802</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0134372</v>
+        <v>0.0194784</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0145947</v>
+        <v>0.0257454</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0150515</v>
+        <v>0.0159292</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0163423</v>
+        <v>0.0167427</v>
       </c>
     </row>
     <row r="6">
@@ -4485,64 +4491,64 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0128213</v>
+        <v>0.0148641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0061258</v>
+        <v>0.0060539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0070368</v>
+        <v>0.0127957</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0098624</v>
+        <v>0.0173458</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0127854</v>
+        <v>0.0166554</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0159009</v>
+        <v>0.0079043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0087281</v>
+        <v>0.0082456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009675</v>
+        <v>0.0117769</v>
       </c>
       <c r="J6" t="n">
-        <v>0.010835</v>
+        <v>0.016137</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0123132</v>
+        <v>0.0178822</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0134989</v>
+        <v>0.0200789</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0151387</v>
+        <v>0.016853</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0163603</v>
+        <v>0.0160729</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0175536</v>
+        <v>0.0172662</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0187239</v>
+        <v>0.0182543</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0196632</v>
+        <v>0.0202098</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0208899</v>
+        <v>0.020972</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0227864</v>
+        <v>0.0225606</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0249318</v>
+        <v>0.0234151</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0258532</v>
+        <v>0.0268207</v>
       </c>
     </row>
   </sheetData>
@@ -4623,132 +4629,132 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0040086</v>
+        <v>0.0035569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0111327</v>
+        <v>0.0137298</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0188958</v>
+        <v>0.0204998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0270773</v>
+        <v>0.0258557</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0422135</v>
+        <v>0.0427524</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0655055</v>
+        <v>0.0638246</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0893621</v>
+        <v>0.0904708</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1200759</v>
+        <v>0.1294225</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1545238</v>
+        <v>0.1579344</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1981822</v>
+        <v>0.1908784</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2422512</v>
+        <v>0.2347729</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2935162</v>
+        <v>0.2810079</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3462311</v>
+        <v>0.3355757</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3912831</v>
+        <v>0.3970162</v>
       </c>
       <c r="P2" t="n">
-        <v>0.449164</v>
+        <v>0.4625321</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5152701</v>
+        <v>0.5242625</v>
       </c>
       <c r="R2" t="n">
-        <v>0.582046</v>
+        <v>0.5925988</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6561308</v>
+        <v>0.6561282</v>
       </c>
       <c r="T2" t="n">
-        <v>0.730385</v>
+        <v>0.7306775</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8181406</v>
+        <v>0.819606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0049119</v>
+        <v>0.0036441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0253245</v>
+        <v>0.0283707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0208925</v>
+        <v>0.0197068</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0252809</v>
+        <v>0.0253065</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04527</v>
+        <v>0.0425035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.063337</v>
+        <v>0.0634345</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0889002</v>
+        <v>0.0891132</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1217235</v>
+        <v>0.1200092</v>
       </c>
       <c r="J3" t="n">
-        <v>0.15341</v>
+        <v>0.1531662</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1913866</v>
+        <v>0.1919871</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2570178</v>
+        <v>0.2343135</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2826811</v>
+        <v>0.281942</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3323088</v>
+        <v>0.3342952</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3899383</v>
+        <v>0.3879109</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4477295</v>
+        <v>0.4510375</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5130759</v>
+        <v>0.5122085</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5836192</v>
+        <v>0.584928</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6558485</v>
+        <v>0.6533361</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7305775</v>
+        <v>0.7327075</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8133929</v>
+        <v>0.8258961</v>
       </c>
     </row>
     <row r="4">
@@ -4756,64 +4762,64 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0012215</v>
+        <v>0.0013396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0013499</v>
+        <v>0.0016732</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0016065</v>
+        <v>0.0035312</v>
       </c>
       <c r="E4" t="n">
-        <v>9.957E-4</v>
+        <v>0.0016629</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0014243</v>
+        <v>0.002284</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0018067</v>
+        <v>0.0018451</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0020017</v>
+        <v>0.0022198</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0024867</v>
+        <v>0.002438</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0028588</v>
+        <v>0.0027536</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0032002</v>
+        <v>0.003195</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0057049</v>
+        <v>0.0038007</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004065</v>
+        <v>0.0049145</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0040881</v>
+        <v>0.013581</v>
       </c>
       <c r="O4" t="n">
-        <v>7.493E-4</v>
+        <v>0.002515</v>
       </c>
       <c r="P4" t="n">
-        <v>7.904E-4</v>
+        <v>0.0012883</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.93E-4</v>
+        <v>0.0013858</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0018451</v>
+        <v>0.0015346</v>
       </c>
       <c r="S4" t="n">
-        <v>9.675E-4</v>
+        <v>0.0015783</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0010444</v>
+        <v>0.0016706</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0010906</v>
+        <v>0.0017527</v>
       </c>
     </row>
     <row r="5">
@@ -4821,64 +4827,64 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3.284E-4</v>
+        <v>0.0053969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0088692</v>
+        <v>0.0083739</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0337292</v>
+        <v>0.0116023</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0079967</v>
+        <v>0.0160241</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005669</v>
+        <v>0.0209899</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0061155</v>
+        <v>0.0199147</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007527</v>
+        <v>0.0147974</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0105014</v>
+        <v>0.0176409</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0097289</v>
+        <v>0.0143996</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0113457</v>
+        <v>0.0123055</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0119385</v>
+        <v>0.0160267</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0136323</v>
+        <v>0.015054</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0155365</v>
+        <v>0.0159343</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0171584</v>
+        <v>0.0183826</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0180823</v>
+        <v>0.0192089</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0174074</v>
+        <v>0.0207256</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0161832</v>
+        <v>0.0211055</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0175921</v>
+        <v>0.02254</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0185725</v>
+        <v>0.0180643</v>
       </c>
       <c r="U5" t="n">
-        <v>0.020179</v>
+        <v>0.0199326</v>
       </c>
     </row>
     <row r="6">
@@ -4886,64 +4892,64 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>4.824E-4</v>
+        <v>4.85E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0016373</v>
+        <v>0.001627</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0028717</v>
+        <v>0.0028511</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0041317</v>
+        <v>0.0041292</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0053405</v>
+        <v>0.0053841</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0066724</v>
+        <v>0.0066467</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0079196</v>
+        <v>0.0078657</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0091438</v>
+        <v>0.0092336</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0105604</v>
+        <v>0.0104578</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0119103</v>
+        <v>0.0117897</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0133705</v>
+        <v>0.0133628</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0145536</v>
+        <v>0.0144381</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0157726</v>
+        <v>0.0164193</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0169711</v>
+        <v>0.0170558</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0184185</v>
+        <v>0.0190934</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.021398</v>
+        <v>0.0198787</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0218548</v>
+        <v>0.0208668</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0225657</v>
+        <v>0.0229712</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0242081</v>
+        <v>0.0235768</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0249318</v>
+        <v>0.0286864</v>
       </c>
     </row>
   </sheetData>
@@ -5026,132 +5032,132 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0013345</v>
+        <v>0.0013344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0139043</v>
+        <v>0.0170352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0359311</v>
+        <v>0.0476336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0871294</v>
+        <v>0.0946359</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1285654</v>
+        <v>0.1524476</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2151071</v>
+        <v>0.1768457</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2430929</v>
+        <v>0.243637</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3546744</v>
+        <v>0.3255722</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4176572</v>
+        <v>0.4281432</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5242523</v>
+        <v>0.5270932</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6417748</v>
+        <v>0.6425729</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8102158</v>
+        <v>0.771051</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9371926</v>
+        <v>0.9122017</v>
       </c>
       <c r="O2" t="n">
-        <v>1.0684937</v>
+        <v>1.0638718</v>
       </c>
       <c r="P2" t="n">
-        <v>1.2350049</v>
+        <v>1.2445131</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4489444</v>
+        <v>1.4169654</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6300964</v>
+        <v>1.6070893</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8328596</v>
+        <v>1.8183315</v>
       </c>
       <c r="T2" t="n">
-        <v>2.044846</v>
+        <v>2.010932</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2793059</v>
+        <v>2.2527316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0010316</v>
+        <v>0.0010239</v>
       </c>
       <c r="C3" t="n">
         <v>0.0118128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0354949</v>
+        <v>0.0346351</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0702096</v>
+        <v>0.0689649</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1179022</v>
+        <v>0.115572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1770176</v>
+        <v>0.175057</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2523343</v>
+        <v>0.244353</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3338178</v>
+        <v>0.325816</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4244143</v>
+        <v>0.42173</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5382927</v>
+        <v>0.5252814</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6558331</v>
+        <v>0.6444232</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7805567</v>
+        <v>0.7779904</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9327272</v>
+        <v>0.9189178</v>
       </c>
       <c r="O3" t="n">
-        <v>1.0864632</v>
+        <v>1.0693381</v>
       </c>
       <c r="P3" t="n">
-        <v>1.2556792</v>
+        <v>1.2408048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4338775</v>
+        <v>1.4220621</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62598</v>
+        <v>1.6167721</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8368784</v>
+        <v>1.8006803</v>
       </c>
       <c r="T3" t="n">
-        <v>2.0458854</v>
+        <v>2.0409709</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2783794</v>
+        <v>2.2740962</v>
       </c>
     </row>
     <row r="4">
@@ -5159,64 +5165,64 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0070728</v>
+        <v>8.237E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0362365</v>
+        <v>0.0089051</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0252552</v>
+        <v>0.0252706</v>
       </c>
       <c r="E4" t="n">
-        <v>0.050975</v>
+        <v>0.0504463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0857898</v>
+        <v>0.0839677</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1303951</v>
+        <v>0.127467</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1805105</v>
+        <v>0.1834591</v>
       </c>
       <c r="I4" t="n">
-        <v>0.236654</v>
+        <v>0.2386327</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3079595</v>
+        <v>0.3056447</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4004372</v>
+        <v>0.3852932</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4775528</v>
+        <v>0.4807325</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5962481</v>
+        <v>0.5741725</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6793766</v>
+        <v>0.6685826</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7921591</v>
+        <v>0.7798125</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9378702</v>
+        <v>0.8955</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.1295596</v>
+        <v>1.0585133</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1973902</v>
+        <v>1.1853952</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3391671</v>
+        <v>1.3098673</v>
       </c>
       <c r="T4" t="n">
-        <v>1.4894462</v>
+        <v>1.4642859</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6720174</v>
+        <v>1.723421</v>
       </c>
     </row>
     <row r="5">
@@ -5224,64 +5230,64 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4.491E-4</v>
+        <v>0.0035081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0013781</v>
+        <v>0.0013473</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0023379</v>
+        <v>0.0023892</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0037263</v>
+        <v>0.0034825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004509</v>
+        <v>0.0045013</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0060308</v>
+        <v>0.0057254</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0072883</v>
+        <v>0.0070727</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0088358</v>
+        <v>0.0086818</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0092285</v>
+        <v>0.0093876</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0106271</v>
+        <v>0.0104115</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0117101</v>
+        <v>0.0112225</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0129445</v>
+        <v>0.0123106</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0142995</v>
+        <v>0.013332</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0159497</v>
+        <v>0.0151002</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0163706</v>
+        <v>0.0155186</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0177589</v>
+        <v>0.0169095</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0182003</v>
+        <v>0.0173663</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0188753</v>
+        <v>0.0195272</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0211824</v>
+        <v>0.0202021</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0231072</v>
+        <v>0.0232945</v>
       </c>
     </row>
     <row r="6">
@@ -5289,64 +5295,64 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0015859</v>
+        <v>0.0021813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0018374</v>
+        <v>0.0018195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0031719</v>
+        <v>0.0032027</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0048195</v>
+        <v>0.0046938</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006213</v>
+        <v>0.006</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0076707</v>
+        <v>0.007432</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0092388</v>
+        <v>0.0090437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0107169</v>
+        <v>0.0102858</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0121335</v>
+        <v>0.0116819</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0137221</v>
+        <v>0.0132191</v>
       </c>
       <c r="L6" t="n">
-        <v>0.015267</v>
+        <v>0.0146126</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0164296</v>
+        <v>0.0161268</v>
       </c>
       <c r="N6" t="n">
-        <v>0.018167</v>
+        <v>0.0175408</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0191627</v>
+        <v>0.0189318</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0213903</v>
+        <v>0.0204485</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.022712</v>
+        <v>0.0225041</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0244725</v>
+        <v>0.0236564</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0256171</v>
+        <v>0.0251217</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0273776</v>
+        <v>0.0263202</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0291817</v>
+        <v>0.0277317</v>
       </c>
     </row>
   </sheetData>
@@ -5429,132 +5435,132 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0020812</v>
+        <v>0.0020838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0228352</v>
+        <v>0.0231483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0675458</v>
+        <v>0.071213</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1284191</v>
+        <v>0.145267</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2298173</v>
+        <v>0.2352656</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3709218</v>
+        <v>0.3185199</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4961356</v>
+        <v>0.4420245</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5875252</v>
+        <v>0.6155879</v>
       </c>
       <c r="J2" t="n">
-        <v>0.760275</v>
+        <v>0.7621895</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9524443</v>
+        <v>0.9511047</v>
       </c>
       <c r="L2" t="n">
-        <v>1.1833678</v>
+        <v>1.1697252</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4277131</v>
+        <v>1.4088583</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6948064</v>
+        <v>1.6697565</v>
       </c>
       <c r="O2" t="n">
-        <v>1.9724935</v>
+        <v>1.96607</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2758362</v>
+        <v>2.2645649</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6060022</v>
+        <v>2.6135575</v>
       </c>
       <c r="R2" t="n">
-        <v>2.9571094</v>
+        <v>2.967616</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3505354</v>
+        <v>3.3865153</v>
       </c>
       <c r="T2" t="n">
-        <v>3.7647692</v>
+        <v>3.7796257</v>
       </c>
       <c r="U2" t="n">
-        <v>4.1570942</v>
+        <v>4.1666487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0017553</v>
+        <v>0.0018169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0198248</v>
+        <v>0.0194784</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0591384</v>
+        <v>0.0576679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1196397</v>
+        <v>0.1177842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2042695</v>
+        <v>0.2012156</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3043025</v>
+        <v>0.3074128</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4319825</v>
+        <v>0.4346566</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5843839</v>
+        <v>0.5847355</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7687824</v>
+        <v>0.7523682</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9502296</v>
+        <v>0.948718</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1730409</v>
+        <v>1.2375302</v>
       </c>
       <c r="M3" t="n">
-        <v>1.4057582</v>
+        <v>1.5109366</v>
       </c>
       <c r="N3" t="n">
-        <v>1.6824675</v>
+        <v>1.8027693</v>
       </c>
       <c r="O3" t="n">
-        <v>1.9519988</v>
+        <v>2.1166494</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2386219</v>
+        <v>2.2792392</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5742464</v>
+        <v>2.608181</v>
       </c>
       <c r="R3" t="n">
-        <v>2.9527826</v>
+        <v>3.3024193</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3439887</v>
+        <v>3.8406966</v>
       </c>
       <c r="T3" t="n">
-        <v>3.6722299</v>
+        <v>3.6831907</v>
       </c>
       <c r="U3" t="n">
-        <v>4.1076025</v>
+        <v>4.0803173</v>
       </c>
     </row>
     <row r="4">
@@ -5562,64 +5568,64 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>6.415E-4</v>
+        <v>4.952E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0064184</v>
+        <v>0.0048015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0213236</v>
+        <v>0.0156905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0378944</v>
+        <v>0.0260764</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0639118</v>
+        <v>0.0428576</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0931526</v>
+        <v>0.0647151</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1313472</v>
+        <v>0.0909096</v>
       </c>
       <c r="I4" t="n">
-        <v>0.177418</v>
+        <v>0.1204378</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2297942</v>
+        <v>0.1550601</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2881679</v>
+        <v>0.1974816</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3448479</v>
+        <v>0.2495986</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4156273</v>
+        <v>0.2824707</v>
       </c>
       <c r="N4" t="n">
-        <v>0.487718</v>
+        <v>0.335101</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5836808</v>
+        <v>0.3925483</v>
       </c>
       <c r="P4" t="n">
-        <v>0.674942</v>
+        <v>0.4499827</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7578473</v>
+        <v>0.5152496</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8591249</v>
+        <v>0.5873403</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9763779</v>
+        <v>0.6560846</v>
       </c>
       <c r="T4" t="n">
-        <v>1.0911827</v>
+        <v>0.7577036</v>
       </c>
       <c r="U4" t="n">
-        <v>1.2271494</v>
+        <v>0.8275796</v>
       </c>
     </row>
     <row r="5">
@@ -5627,64 +5633,64 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>9.264E-4</v>
+        <v>6.929E-4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0026972</v>
+        <v>0.0026561</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0051069</v>
+        <v>0.0048375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0532924</v>
+        <v>0.0071395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0095672</v>
+        <v>0.009462</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0121361</v>
+        <v>0.0119822</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0147204</v>
+        <v>0.0146896</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0173663</v>
+        <v>0.0179694</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0195554</v>
+        <v>0.0196041</v>
       </c>
       <c r="K5" t="n">
-        <v>0.022404</v>
+        <v>0.0221294</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02428</v>
+        <v>0.0241902</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0271645</v>
+        <v>0.0277882</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0295256</v>
+        <v>0.029292</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0326514</v>
+        <v>0.0327668</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0346608</v>
+        <v>0.0344632</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0376403</v>
+        <v>0.0374222</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03937</v>
+        <v>0.0403555</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0434094</v>
+        <v>0.0429475</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0459552</v>
+        <v>0.0448055</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0495481</v>
+        <v>0.0489065</v>
       </c>
     </row>
     <row r="6">
@@ -5692,64 +5698,64 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>5.825E-4</v>
+        <v>5.876E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0022968</v>
+        <v>0.0022814</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0041651</v>
+        <v>0.0041497</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0060822</v>
+        <v>0.0061258</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0080582</v>
+        <v>0.0081429</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0101267</v>
+        <v>0.0101395</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0122105</v>
+        <v>0.0127238</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0142867</v>
+        <v>0.0142816</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0164322</v>
+        <v>0.016386</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0186341</v>
+        <v>0.018747</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0207949</v>
+        <v>0.0208539</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0240849</v>
+        <v>0.0234819</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0252167</v>
+        <v>0.0250525</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0273005</v>
+        <v>0.0273288</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0299439</v>
+        <v>0.0300209</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0316941</v>
+        <v>0.0320508</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0343374</v>
+        <v>0.0348533</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0369602</v>
+        <v>0.0363982</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0390441</v>
+        <v>0.0385103</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0411382</v>
+        <v>0.041187</v>
       </c>
     </row>
   </sheetData>

--- a/Lab01/SortStatistics.xlsx
+++ b/Lab01/SortStatistics.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="9">
   <si>
     <t>size</t>
   </si>
@@ -4231,64 +4231,64 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0184698</v>
+        <v>0.0188522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0364752</v>
+        <v>0.048637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0291843</v>
+        <v>0.0294896</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0254887</v>
+        <v>0.0276752</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0427268</v>
+        <v>0.0435326</v>
       </c>
       <c r="G2" t="n">
-        <v>0.063917</v>
+        <v>0.0648922</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0893827</v>
+        <v>0.0929396</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1225319</v>
+        <v>0.1237894</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1546803</v>
+        <v>0.1553732</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1953797</v>
+        <v>0.1923489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2433855</v>
+        <v>0.2343392</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2896666</v>
+        <v>0.3324114</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3350394</v>
+        <v>0.3464878</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3906722</v>
+        <v>0.3892069</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4494951</v>
+        <v>0.4491307</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5184216</v>
+        <v>0.5160067</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5922497</v>
+        <v>0.586129</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6560256</v>
+        <v>0.6567108</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7430447</v>
+        <v>0.7435297</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8147813</v>
+        <v>0.8175914</v>
       </c>
     </row>
     <row r="3">
@@ -4296,259 +4296,259 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0117229</v>
+        <v>0.0059128</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0328541</v>
+        <v>0.0333751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0162782</v>
+        <v>0.0244802</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0250294</v>
+        <v>0.0264716</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0423803</v>
+        <v>0.0429603</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0636731</v>
+        <v>0.066355</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0890798</v>
+        <v>0.0916821</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1203839</v>
+        <v>0.1199733</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1535845</v>
+        <v>0.1553065</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1923181</v>
+        <v>0.1932061</v>
       </c>
       <c r="L3" t="n">
-        <v>0.234814</v>
+        <v>0.2534198</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2824707</v>
+        <v>0.282386</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3328375</v>
+        <v>0.3348392</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3896714</v>
+        <v>0.3897304</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4542095</v>
+        <v>0.4487509</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5144386</v>
+        <v>0.5175336</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5813659</v>
+        <v>0.5834318</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6572241</v>
+        <v>0.6641891</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7344424</v>
+        <v>0.7398573</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8188156</v>
+        <v>0.8253494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4.465E-4</v>
+        <v>0.0067083</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001047</v>
+        <v>0.0059872</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001822</v>
+        <v>0.0064286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0025252</v>
+        <v>0.0095595</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0032643</v>
+        <v>0.0123722</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0041061</v>
+        <v>0.0157983</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0039803</v>
+        <v>0.0182132</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0020684</v>
+        <v>0.0214442</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0018477</v>
+        <v>0.0170045</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0020556</v>
+        <v>0.0143047</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0022866</v>
+        <v>0.0145741</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002497</v>
+        <v>0.0159625</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0027152</v>
+        <v>0.0169762</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0033849</v>
+        <v>0.0211183</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0031386</v>
+        <v>0.0212441</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0036698</v>
+        <v>0.0228454</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0051814</v>
+        <v>0.0294845</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0056561</v>
+        <v>0.0228429</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0057922</v>
+        <v>0.0196093</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0013319</v>
+        <v>0.0216803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0058332</v>
+        <v>4.824E-4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0052635</v>
+        <v>0.0016527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0069496</v>
+        <v>0.0028948</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0096186</v>
+        <v>0.0041163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0126442</v>
+        <v>0.005456</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0089693</v>
+        <v>0.0067032</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0074089</v>
+        <v>0.0079941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008728</v>
+        <v>0.0092285</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0096802</v>
+        <v>0.0106554</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0114355</v>
+        <v>0.0118204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0127084</v>
+        <v>0.0130934</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0136451</v>
+        <v>0.0143817</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0147512</v>
+        <v>0.0158983</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0255786</v>
+        <v>0.0170737</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0214288</v>
+        <v>0.0184904</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0185802</v>
+        <v>0.0196683</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0194784</v>
+        <v>0.0210079</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0257454</v>
+        <v>0.0222757</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0159292</v>
+        <v>0.0236846</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0167427</v>
+        <v>0.0250088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0148641</v>
+        <v>9.803E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0060539</v>
+        <v>0.0013986</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0127957</v>
+        <v>0.0026048</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0173458</v>
+        <v>0.0017374</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0166554</v>
+        <v>0.0014474</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0079043</v>
+        <v>0.0018452</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0082456</v>
+        <v>0.0023122</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0117769</v>
+        <v>0.0021095</v>
       </c>
       <c r="J6" t="n">
-        <v>0.016137</v>
+        <v>0.0018272</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0178822</v>
+        <v>0.0025637</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0200789</v>
+        <v>0.00329</v>
       </c>
       <c r="M6" t="n">
-        <v>0.016853</v>
+        <v>0.0037879</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0160729</v>
+        <v>0.004296</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0172662</v>
+        <v>0.0042678</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0182543</v>
+        <v>0.0047502</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0202098</v>
+        <v>0.003544</v>
       </c>
       <c r="R6" t="n">
-        <v>0.020972</v>
+        <v>9.777E-4</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0225606</v>
+        <v>0.001047</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0234151</v>
+        <v>0.001106</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0268207</v>
+        <v>0.0011702</v>
       </c>
     </row>
   </sheetData>
@@ -4632,64 +4632,64 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0035569</v>
+        <v>6.672E-4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0137298</v>
+        <v>0.0081044</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0204998</v>
+        <v>0.0213724</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0258557</v>
+        <v>0.039329</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0427524</v>
+        <v>0.0652361</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0638246</v>
+        <v>0.0664627</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0904708</v>
+        <v>0.0922082</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1294225</v>
+        <v>0.1433012</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1579344</v>
+        <v>0.1536204</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1908784</v>
+        <v>0.261722</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2347729</v>
+        <v>0.2449972</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2810079</v>
+        <v>0.2838</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3355757</v>
+        <v>0.337444</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3970162</v>
+        <v>0.3893891</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4625321</v>
+        <v>0.4490639</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5242625</v>
+        <v>0.5140973</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5925988</v>
+        <v>0.5930889</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6561282</v>
+        <v>0.6686802</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7306775</v>
+        <v>0.7485212</v>
       </c>
       <c r="U2" t="n">
-        <v>0.819606</v>
+        <v>0.827459</v>
       </c>
     </row>
     <row r="3">
@@ -4697,259 +4697,259 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0036441</v>
+        <v>4.722E-4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0283707</v>
+        <v>0.0046861</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0197068</v>
+        <v>0.013445</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0253065</v>
+        <v>0.0262022</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0425035</v>
+        <v>0.0426421</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0634345</v>
+        <v>0.0658391</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0891132</v>
+        <v>0.0894211</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1200092</v>
+        <v>0.1235225</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1531662</v>
+        <v>0.1532073</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1919871</v>
+        <v>0.1968733</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2343135</v>
+        <v>0.2419894</v>
       </c>
       <c r="M3" t="n">
-        <v>0.281942</v>
+        <v>0.288055</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3342952</v>
+        <v>0.3331429</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3879109</v>
+        <v>0.3897638</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4510375</v>
+        <v>0.4534858</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5122085</v>
+        <v>0.5209905</v>
       </c>
       <c r="R3" t="n">
-        <v>0.584928</v>
+        <v>0.5826645</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6533361</v>
+        <v>0.6626082</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7327075</v>
+        <v>0.7343756</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8258961</v>
+        <v>0.8266634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0013396</v>
+        <v>3.798E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0016732</v>
+        <v>0.0012831</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0035312</v>
+        <v>0.002325</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0016629</v>
+        <v>0.0034363</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002284</v>
+        <v>0.0043807</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0018451</v>
+        <v>0.00561</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0022198</v>
+        <v>0.0067186</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002438</v>
+        <v>0.0081917</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0027536</v>
+        <v>0.0111763</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003195</v>
+        <v>0.0102319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0038007</v>
+        <v>0.0108555</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0049145</v>
+        <v>0.012113</v>
       </c>
       <c r="N4" t="n">
-        <v>0.013581</v>
+        <v>0.0130857</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002515</v>
+        <v>0.0147589</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0012883</v>
+        <v>0.0156315</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0013858</v>
+        <v>0.0177128</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0015346</v>
+        <v>0.0183518</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0015783</v>
+        <v>0.0192166</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0016706</v>
+        <v>0.0200763</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0017527</v>
+        <v>0.0216726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0053969</v>
+        <v>5.26E-4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0083739</v>
+        <v>0.0016604</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0116023</v>
+        <v>0.0029256</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0160241</v>
+        <v>0.0041702</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0209899</v>
+        <v>0.0054662</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0199147</v>
+        <v>0.0067853</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0147974</v>
+        <v>0.0082045</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0176409</v>
+        <v>0.009385</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0143996</v>
+        <v>0.0110737</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0123055</v>
+        <v>0.0119206</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0160267</v>
+        <v>0.0138504</v>
       </c>
       <c r="M5" t="n">
-        <v>0.015054</v>
+        <v>0.0146768</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0159343</v>
+        <v>0.0165656</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0183826</v>
+        <v>0.0175562</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0192089</v>
+        <v>0.0186366</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0207256</v>
+        <v>0.0201277</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0211055</v>
+        <v>0.0213261</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02254</v>
+        <v>0.0227736</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0180643</v>
+        <v>0.024244</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0199326</v>
+        <v>0.0255324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.85E-4</v>
+        <v>3.33E-5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001627</v>
+        <v>9.23E-5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0028511</v>
+        <v>1.642E-4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0041292</v>
+        <v>2.566E-4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0053841</v>
+        <v>3.438E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0066467</v>
+        <v>4.439E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0078657</v>
+        <v>5.132E-4</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0092336</v>
+        <v>6.056E-4</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0104578</v>
+        <v>6.954E-4</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0117897</v>
+        <v>7.827E-4</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0133628</v>
+        <v>8.853E-4</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0144381</v>
+        <v>9.777E-4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0164193</v>
+        <v>0.0010752</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0170558</v>
+        <v>0.0011446</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0190934</v>
+        <v>0.0012215</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0198787</v>
+        <v>0.0013319</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0208668</v>
+        <v>0.0014037</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0229712</v>
+        <v>0.0015064</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0235768</v>
+        <v>0.0016167</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0286864</v>
+        <v>0.0016886</v>
       </c>
     </row>
   </sheetData>
@@ -5035,64 +5035,64 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0013344</v>
+        <v>0.026197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0170352</v>
+        <v>0.0397165</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0476336</v>
+        <v>0.0251423</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0946359</v>
+        <v>0.0432914</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1524476</v>
+        <v>0.0726219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1768457</v>
+        <v>0.109862</v>
       </c>
       <c r="H2" t="n">
-        <v>0.243637</v>
+        <v>0.1539874</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3255722</v>
+        <v>0.2077264</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4281432</v>
+        <v>0.2692643</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5270932</v>
+        <v>0.3324012</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6425729</v>
+        <v>0.4429099</v>
       </c>
       <c r="M2" t="n">
-        <v>0.771051</v>
+        <v>0.5032802</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9122017</v>
+        <v>0.5781709</v>
       </c>
       <c r="O2" t="n">
-        <v>1.0638718</v>
+        <v>0.6917848</v>
       </c>
       <c r="P2" t="n">
-        <v>1.2445131</v>
+        <v>0.7905346</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4169654</v>
+        <v>0.91823</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6070893</v>
+        <v>1.0537399</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8183315</v>
+        <v>1.1799597</v>
       </c>
       <c r="T2" t="n">
-        <v>2.010932</v>
+        <v>1.3020939</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2527316</v>
+        <v>1.4397005</v>
       </c>
     </row>
     <row r="3">
@@ -5100,259 +5100,259 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0010239</v>
+        <v>0.0249344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0118128</v>
+        <v>0.0407635</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0346351</v>
+        <v>0.0318994</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0689649</v>
+        <v>0.027606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.115572</v>
+        <v>0.0467097</v>
       </c>
       <c r="G3" t="n">
-        <v>0.175057</v>
+        <v>0.0685415</v>
       </c>
       <c r="H3" t="n">
-        <v>0.244353</v>
+        <v>0.0962373</v>
       </c>
       <c r="I3" t="n">
-        <v>0.325816</v>
+        <v>0.1300615</v>
       </c>
       <c r="J3" t="n">
-        <v>0.42173</v>
+        <v>0.1641937</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5252814</v>
+        <v>0.2070488</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6444232</v>
+        <v>0.2520725</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7779904</v>
+        <v>0.3328195</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9189178</v>
+        <v>0.3705317</v>
       </c>
       <c r="O3" t="n">
-        <v>1.0693381</v>
+        <v>0.4228309</v>
       </c>
       <c r="P3" t="n">
-        <v>1.2408048</v>
+        <v>0.487505</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4220621</v>
+        <v>0.5595059</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6167721</v>
+        <v>0.6388389</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8006803</v>
+        <v>0.7249983</v>
       </c>
       <c r="T3" t="n">
-        <v>2.0409709</v>
+        <v>0.802078</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2740962</v>
+        <v>0.8912964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>8.237E-4</v>
+        <v>0.0055073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0089051</v>
+        <v>0.0043242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0252706</v>
+        <v>0.0064389</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0504463</v>
+        <v>0.0090642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0839677</v>
+        <v>0.0119385</v>
       </c>
       <c r="G4" t="n">
-        <v>0.127467</v>
+        <v>0.0147153</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1834591</v>
+        <v>0.0138684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2386327</v>
+        <v>0.0101421</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3056447</v>
+        <v>0.0110865</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3852932</v>
+        <v>0.0132268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4807325</v>
+        <v>0.0139377</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5741725</v>
+        <v>0.0155083</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6685826</v>
+        <v>0.016966</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7798125</v>
+        <v>0.0190062</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8955</v>
+        <v>0.0248369</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.0585133</v>
+        <v>0.0214981</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1853952</v>
+        <v>0.0221038</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3098673</v>
+        <v>0.0246778</v>
       </c>
       <c r="T4" t="n">
-        <v>1.4642859</v>
+        <v>0.0280166</v>
       </c>
       <c r="U4" t="n">
-        <v>1.723421</v>
+        <v>0.0283246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0035081</v>
+        <v>0.0131319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0013473</v>
+        <v>0.0102422</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0023892</v>
+        <v>0.0122824</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0034825</v>
+        <v>0.0177667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0045013</v>
+        <v>0.0145023</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0057254</v>
+        <v>0.0081224</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0070727</v>
+        <v>0.0089795</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0086818</v>
+        <v>0.0106246</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0093876</v>
+        <v>0.0121541</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0104115</v>
+        <v>0.0151182</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0112225</v>
+        <v>0.0211208</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0123106</v>
+        <v>0.0212979</v>
       </c>
       <c r="N5" t="n">
-        <v>0.013332</v>
+        <v>0.0179309</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0151002</v>
+        <v>0.0192166</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0155186</v>
+        <v>0.0209617</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0169095</v>
+        <v>0.0221602</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0173663</v>
+        <v>0.0242261</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0195272</v>
+        <v>0.0254785</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0202021</v>
+        <v>0.0267411</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0232945</v>
+        <v>0.0281012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0021813</v>
+        <v>0.0293972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0018195</v>
+        <v>0.0334495</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0032027</v>
+        <v>0.014297</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0046938</v>
+        <v>0.0285401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006</v>
+        <v>0.0473128</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007432</v>
+        <v>0.0717751</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0090437</v>
+        <v>0.1030971</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0102858</v>
+        <v>0.1391335</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0116819</v>
+        <v>0.1774231</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0132191</v>
+        <v>0.2246538</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0146126</v>
+        <v>0.2796862</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0161268</v>
+        <v>0.3267681</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0175408</v>
+        <v>0.3812795</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0189318</v>
+        <v>0.4464668</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0204485</v>
+        <v>0.521591</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0225041</v>
+        <v>0.5894679</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0236564</v>
+        <v>0.6702841</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0251217</v>
+        <v>0.7529635</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0263202</v>
+        <v>0.8378115</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0277317</v>
+        <v>0.9322268</v>
       </c>
     </row>
   </sheetData>
@@ -5438,64 +5438,64 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0020838</v>
+        <v>0.0018477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0231483</v>
+        <v>0.0206332</v>
       </c>
       <c r="D2" t="n">
-        <v>0.071213</v>
+        <v>0.0598006</v>
       </c>
       <c r="E2" t="n">
-        <v>0.145267</v>
+        <v>0.1197859</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2352656</v>
+        <v>0.1970864</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3185199</v>
+        <v>0.3217586</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4420245</v>
+        <v>0.5365193</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6155879</v>
+        <v>0.6527202</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7621895</v>
+        <v>0.7975612</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9511047</v>
+        <v>0.9894303</v>
       </c>
       <c r="L2" t="n">
-        <v>1.1697252</v>
+        <v>1.1106021</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4088583</v>
+        <v>1.331155</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6697565</v>
+        <v>1.5736166</v>
       </c>
       <c r="O2" t="n">
-        <v>1.96607</v>
+        <v>1.855261</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2645649</v>
+        <v>2.1162465</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6135575</v>
+        <v>2.4373661</v>
       </c>
       <c r="R2" t="n">
-        <v>2.967616</v>
+        <v>2.7436704</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3865153</v>
+        <v>3.0878818</v>
       </c>
       <c r="T2" t="n">
-        <v>3.7796257</v>
+        <v>3.489982</v>
       </c>
       <c r="U2" t="n">
-        <v>4.1666487</v>
+        <v>3.8955108</v>
       </c>
     </row>
     <row r="3">
@@ -5503,259 +5503,259 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0018169</v>
+        <v>0.001491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0194784</v>
+        <v>0.0153004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0576679</v>
+        <v>0.0458757</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1177842</v>
+        <v>0.0976385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2012156</v>
+        <v>0.167589</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3074128</v>
+        <v>0.260254</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4346566</v>
+        <v>0.3716583</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5847355</v>
+        <v>0.5104249</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7523682</v>
+        <v>0.6693859</v>
       </c>
       <c r="K3" t="n">
-        <v>0.948718</v>
+        <v>0.8478305</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2375302</v>
+        <v>1.0441829</v>
       </c>
       <c r="M3" t="n">
-        <v>1.5109366</v>
+        <v>1.2558461</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8027693</v>
+        <v>1.4808798</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1166494</v>
+        <v>1.7571528</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2792392</v>
+        <v>2.0475433</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.608181</v>
+        <v>2.335896</v>
       </c>
       <c r="R3" t="n">
-        <v>3.3024193</v>
+        <v>2.6136165</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8406966</v>
+        <v>2.955798</v>
       </c>
       <c r="T3" t="n">
-        <v>3.6831907</v>
+        <v>3.3227523</v>
       </c>
       <c r="U3" t="n">
-        <v>4.0803173</v>
+        <v>3.7088514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4.952E-4</v>
+        <v>7.237E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0048015</v>
+        <v>0.0027228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0156905</v>
+        <v>0.0050069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0260764</v>
+        <v>0.0073679</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0428576</v>
+        <v>0.009734</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0647151</v>
+        <v>0.0123106</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0909096</v>
+        <v>0.0151156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1204378</v>
+        <v>0.0178385</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1550601</v>
+        <v>0.0200327</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1974816</v>
+        <v>0.0227556</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2495986</v>
+        <v>0.0252347</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2824707</v>
+        <v>0.0278164</v>
       </c>
       <c r="N4" t="n">
-        <v>0.335101</v>
+        <v>0.0302441</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3925483</v>
+        <v>0.0337626</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4499827</v>
+        <v>0.0357951</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5152496</v>
+        <v>0.0386514</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5873403</v>
+        <v>0.0404222</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6560846</v>
+        <v>0.0451725</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7577036</v>
+        <v>0.0466148</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8275796</v>
+        <v>0.0501306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>6.929E-4</v>
+        <v>6.159E-4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0026561</v>
+        <v>0.0023456</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0048375</v>
+        <v>0.0042241</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0071395</v>
+        <v>0.0065005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009462</v>
+        <v>0.0081763</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0119822</v>
+        <v>0.0102576</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0146896</v>
+        <v>0.0127213</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0179694</v>
+        <v>0.0144971</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0196041</v>
+        <v>0.0166118</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0221294</v>
+        <v>0.0188394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0241902</v>
+        <v>0.0209977</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0277882</v>
+        <v>0.0239053</v>
       </c>
       <c r="N5" t="n">
-        <v>0.029292</v>
+        <v>0.0254374</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0327668</v>
+        <v>0.0276496</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0344632</v>
+        <v>0.029795</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0374222</v>
+        <v>0.0321484</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0403555</v>
+        <v>0.0343041</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0429475</v>
+        <v>0.0368678</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0448055</v>
+        <v>0.0392494</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0489065</v>
+        <v>0.0425548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.876E-4</v>
+        <v>4.157E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0022814</v>
+        <v>0.0037365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0041497</v>
+        <v>0.0104424</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0061258</v>
+        <v>0.0206255</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0081429</v>
+        <v>0.0338396</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0101395</v>
+        <v>0.0495789</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0127238</v>
+        <v>0.0699684</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0142816</v>
+        <v>0.0913433</v>
       </c>
       <c r="J6" t="n">
-        <v>0.016386</v>
+        <v>0.1183744</v>
       </c>
       <c r="K6" t="n">
-        <v>0.018747</v>
+        <v>0.1517804</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0208539</v>
+        <v>0.1832307</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0234819</v>
+        <v>0.2207787</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0250525</v>
+        <v>0.2593404</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0273288</v>
+        <v>0.3019517</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0300209</v>
+        <v>0.3472962</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0320508</v>
+        <v>0.3968802</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0348533</v>
+        <v>0.4521949</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0363982</v>
+        <v>0.5090827</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0385103</v>
+        <v>0.5650697</v>
       </c>
       <c r="U6" t="n">
-        <v>0.041187</v>
+        <v>0.6380151</v>
       </c>
     </row>
   </sheetData>

--- a/Lab01/SortStatistics.xlsx
+++ b/Lab01/SortStatistics.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="9">
   <si>
     <t>size</t>
   </si>
@@ -4231,324 +4231,324 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0188522</v>
+        <v>0.012742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.048637</v>
+        <v>0.0427481</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0294896</v>
+        <v>0.0252583</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0276752</v>
+        <v>0.0358599</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0435326</v>
+        <v>0.052911</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0648922</v>
+        <v>0.0776098</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0929396</v>
+        <v>0.1668709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1237894</v>
+        <v>0.1315782</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1553732</v>
+        <v>0.2074351</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1923489</v>
+        <v>0.1943466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2343392</v>
+        <v>0.2353548</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3324114</v>
+        <v>0.2833948</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3464878</v>
+        <v>0.3345837</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3892069</v>
+        <v>0.388665</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4491307</v>
+        <v>0.4519827</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5160067</v>
+        <v>0.5247139</v>
       </c>
       <c r="R2" t="n">
-        <v>0.586129</v>
+        <v>0.5992825</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6567108</v>
+        <v>0.6721882</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7435297</v>
+        <v>0.753124</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8175914</v>
+        <v>0.8359693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0059128</v>
+        <v>0.0109687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0333751</v>
+        <v>0.0132579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0244802</v>
+        <v>0.0274397</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0264716</v>
+        <v>0.0384494</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0429603</v>
+        <v>0.0228305</v>
       </c>
       <c r="G3" t="n">
-        <v>0.066355</v>
+        <v>0.0246295</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0916821</v>
+        <v>0.0292849</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1199733</v>
+        <v>0.0307246</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1553065</v>
+        <v>0.0212521</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1932061</v>
+        <v>0.0401766</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2534198</v>
+        <v>0.0251094</v>
       </c>
       <c r="M3" t="n">
-        <v>0.282386</v>
+        <v>0.0250247</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3348392</v>
+        <v>0.0267775</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3897304</v>
+        <v>0.0204976</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4487509</v>
+        <v>0.0125444</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5175336</v>
+        <v>0.0130012</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5834318</v>
+        <v>0.0133451</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6641891</v>
+        <v>0.0159654</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7398573</v>
+        <v>0.0152622</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8253494</v>
+        <v>0.0169124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0067083</v>
+        <v>4.054E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0059872</v>
+        <v>0.0010419</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0064286</v>
+        <v>0.0017785</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0095595</v>
+        <v>0.0025253</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0123722</v>
+        <v>0.0035339</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0157983</v>
+        <v>0.004273</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0182132</v>
+        <v>0.0042525</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0214442</v>
+        <v>0.0024739</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0170045</v>
+        <v>0.0018375</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0143047</v>
+        <v>0.0024688</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0145741</v>
+        <v>0.0022789</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0159625</v>
+        <v>0.002497</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0169762</v>
+        <v>0.0027177</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0211183</v>
+        <v>0.002941</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0212441</v>
+        <v>0.0031694</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0228454</v>
+        <v>0.0034389</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0294845</v>
+        <v>0.0056409</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0228429</v>
+        <v>0.0105144</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0196093</v>
+        <v>0.0102885</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0216803</v>
+        <v>0.0120029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>4.824E-4</v>
+        <v>0.016548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0016527</v>
+        <v>0.0450065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0028948</v>
+        <v>0.0232642</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0041163</v>
+        <v>0.0271522</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005456</v>
+        <v>0.0425043</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0067032</v>
+        <v>0.0636487</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0079941</v>
+        <v>0.0896332</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0092285</v>
+        <v>0.119334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0106554</v>
+        <v>0.1546319</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0118204</v>
+        <v>0.1922704</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0130934</v>
+        <v>0.2365071</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0143817</v>
+        <v>0.2828327</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0158983</v>
+        <v>0.3317864</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0170737</v>
+        <v>0.388121</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0184904</v>
+        <v>0.4469141</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0196683</v>
+        <v>0.5164886</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0210079</v>
+        <v>0.5854292</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0222757</v>
+        <v>0.6712438</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0236846</v>
+        <v>0.7749767</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0250088</v>
+        <v>0.8370087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>9.803E-4</v>
+        <v>0.3109243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0013986</v>
+        <v>0.0154188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0026048</v>
+        <v>0.0303012</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0017374</v>
+        <v>0.0320258</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0014474</v>
+        <v>0.0332346</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0018452</v>
+        <v>0.0365041</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0023122</v>
+        <v>0.0266082</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0021095</v>
+        <v>0.0147771</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0018272</v>
+        <v>0.0127035</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0025637</v>
+        <v>0.0141202</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00329</v>
+        <v>0.0156831</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0037879</v>
+        <v>0.0176079</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004296</v>
+        <v>0.0180955</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0042678</v>
+        <v>0.0196302</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0047502</v>
+        <v>0.0212162</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003544</v>
+        <v>0.0226765</v>
       </c>
       <c r="R6" t="n">
-        <v>9.777E-4</v>
+        <v>0.021247</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001047</v>
+        <v>0.0234053</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001106</v>
+        <v>0.0242779</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0011702</v>
+        <v>0.025425</v>
       </c>
     </row>
   </sheetData>
@@ -4632,324 +4632,324 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>6.672E-4</v>
+        <v>0.0055074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0081044</v>
+        <v>0.0328701</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0213724</v>
+        <v>0.0142254</v>
       </c>
       <c r="E2" t="n">
-        <v>0.039329</v>
+        <v>0.0261796</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0652361</v>
+        <v>0.0428456</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0664627</v>
+        <v>0.0632406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0922082</v>
+        <v>0.0886965</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1433012</v>
+        <v>0.1184203</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1536204</v>
+        <v>0.1536567</v>
       </c>
       <c r="K2" t="n">
-        <v>0.261722</v>
+        <v>0.1908384</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2449972</v>
+        <v>0.2332478</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2838</v>
+        <v>0.280274</v>
       </c>
       <c r="N2" t="n">
-        <v>0.337444</v>
+        <v>0.3321611</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3893891</v>
+        <v>0.3865529</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4490639</v>
+        <v>0.4467498</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5140973</v>
+        <v>0.5254684</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5930889</v>
+        <v>0.5827242</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6686802</v>
+        <v>0.6510643</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7485212</v>
+        <v>0.7474446</v>
       </c>
       <c r="U2" t="n">
-        <v>0.827459</v>
+        <v>0.8116221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4.722E-4</v>
+        <v>0.0056024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0046861</v>
+        <v>0.0052456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.013445</v>
+        <v>0.0070395</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0262022</v>
+        <v>0.0105349</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0426421</v>
+        <v>0.0135684</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0658391</v>
+        <v>0.0157832</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0894211</v>
+        <v>0.0172024</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1235225</v>
+        <v>0.0097702</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1532073</v>
+        <v>0.0106812</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1968733</v>
+        <v>0.0124905</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2419894</v>
+        <v>0.0133811</v>
       </c>
       <c r="M3" t="n">
-        <v>0.288055</v>
+        <v>0.015465</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3331429</v>
+        <v>0.0161476</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3897638</v>
+        <v>0.0190348</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4534858</v>
+        <v>0.0197328</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5209905</v>
+        <v>0.020957</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5826645</v>
+        <v>0.021555</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6626082</v>
+        <v>0.0241701</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7343756</v>
+        <v>0.0210827</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8266634</v>
+        <v>0.0187319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3.798E-4</v>
+        <v>8.263E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0012831</v>
+        <v>0.0017348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002325</v>
+        <v>0.0014628</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0034363</v>
+        <v>9.29E-4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0043807</v>
+        <v>0.0013781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00561</v>
+        <v>0.0018118</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0067186</v>
+        <v>0.0020402</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0081917</v>
+        <v>0.0024662</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0111763</v>
+        <v>0.0029025</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0102319</v>
+        <v>0.0032695</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0108555</v>
+        <v>0.0036108</v>
       </c>
       <c r="M4" t="n">
-        <v>0.012113</v>
+        <v>0.004001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0130857</v>
+        <v>0.0044449</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0147589</v>
+        <v>0.0068881</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0156315</v>
+        <v>0.0121184</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0177128</v>
+        <v>0.0010522</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0183518</v>
+        <v>0.0010778</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0192166</v>
+        <v>0.0011702</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0200763</v>
+        <v>0.0013191</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0216726</v>
+        <v>0.0012883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>5.26E-4</v>
+        <v>0.0050968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0016604</v>
+        <v>0.024881</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0029256</v>
+        <v>0.0207157</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0041702</v>
+        <v>0.0380901</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0054662</v>
+        <v>0.0638052</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0067853</v>
+        <v>0.0961852</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0082045</v>
+        <v>0.1359512</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009385</v>
+        <v>0.1795232</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0110737</v>
+        <v>0.2343436</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0119206</v>
+        <v>0.2960829</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0138504</v>
+        <v>0.3627934</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0146768</v>
+        <v>0.435794</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0165656</v>
+        <v>0.5088742</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0175562</v>
+        <v>0.5865636</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0186366</v>
+        <v>0.6727913</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0201277</v>
+        <v>0.7681835</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0213261</v>
+        <v>0.8830649</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0227736</v>
+        <v>1.0071107</v>
       </c>
       <c r="T5" t="n">
-        <v>0.024244</v>
+        <v>1.1183299</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0255324</v>
+        <v>1.2469182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>3.33E-5</v>
+        <v>4.824E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>9.23E-5</v>
+        <v>0.0016501</v>
       </c>
       <c r="D6" t="n">
-        <v>1.642E-4</v>
+        <v>0.0028563</v>
       </c>
       <c r="E6" t="n">
-        <v>2.566E-4</v>
+        <v>0.0040831</v>
       </c>
       <c r="F6" t="n">
-        <v>3.438E-4</v>
+        <v>0.0054124</v>
       </c>
       <c r="G6" t="n">
-        <v>4.439E-4</v>
+        <v>0.0066828</v>
       </c>
       <c r="H6" t="n">
-        <v>5.132E-4</v>
+        <v>0.0083022</v>
       </c>
       <c r="I6" t="n">
-        <v>6.056E-4</v>
+        <v>0.0092595</v>
       </c>
       <c r="J6" t="n">
-        <v>6.954E-4</v>
+        <v>0.010617</v>
       </c>
       <c r="K6" t="n">
-        <v>7.827E-4</v>
+        <v>0.0117796</v>
       </c>
       <c r="L6" t="n">
-        <v>8.853E-4</v>
+        <v>0.0131244</v>
       </c>
       <c r="M6" t="n">
-        <v>9.777E-4</v>
+        <v>0.0149414</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0010752</v>
+        <v>0.0160141</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0011446</v>
+        <v>0.0173153</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0012215</v>
+        <v>0.0183342</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0013319</v>
+        <v>0.0197508</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0014037</v>
+        <v>0.0211546</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0015064</v>
+        <v>0.0223865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0016167</v>
+        <v>0.0245525</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0016886</v>
+        <v>0.0254687</v>
       </c>
     </row>
   </sheetData>
@@ -5035,324 +5035,324 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.026197</v>
+        <v>0.0013422</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0397165</v>
+        <v>0.015311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0251423</v>
+        <v>0.0433256</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0432914</v>
+        <v>0.0743993</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0726219</v>
+        <v>0.1335491</v>
       </c>
       <c r="G2" t="n">
-        <v>0.109862</v>
+        <v>0.21584</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1539874</v>
+        <v>0.3028762</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2077264</v>
+        <v>0.387564</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2692643</v>
+        <v>0.5082736</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3324012</v>
+        <v>0.6015897</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4429099</v>
+        <v>0.7620114</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5032802</v>
+        <v>0.793275</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5781709</v>
+        <v>0.9314899</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6917848</v>
+        <v>1.0669972</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7905346</v>
+        <v>1.2439592</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.91823</v>
+        <v>1.4286537</v>
       </c>
       <c r="R2" t="n">
-        <v>1.0537399</v>
+        <v>1.6209396</v>
       </c>
       <c r="S2" t="n">
-        <v>1.1799597</v>
+        <v>1.8136796</v>
       </c>
       <c r="T2" t="n">
-        <v>1.3020939</v>
+        <v>2.0454774</v>
       </c>
       <c r="U2" t="n">
-        <v>1.4397005</v>
+        <v>2.3103661</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0249344</v>
+        <v>3.772E-4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0407635</v>
+        <v>0.0012755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0318994</v>
+        <v>0.0023071</v>
       </c>
       <c r="E3" t="n">
-        <v>0.027606</v>
+        <v>0.0033106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0467097</v>
+        <v>0.004332</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0685415</v>
+        <v>0.0055844</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0962373</v>
+        <v>0.0068342</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1300615</v>
+        <v>0.0079865</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1641937</v>
+        <v>0.0089053</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2070488</v>
+        <v>0.0100473</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2520725</v>
+        <v>0.0110739</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3328195</v>
+        <v>0.0122159</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3705317</v>
+        <v>0.0130166</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4228309</v>
+        <v>0.0144487</v>
       </c>
       <c r="P3" t="n">
-        <v>0.487505</v>
+        <v>0.0155933</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5595059</v>
+        <v>0.0166044</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6388389</v>
+        <v>0.0167173</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7249983</v>
+        <v>0.0192657</v>
       </c>
       <c r="T3" t="n">
-        <v>0.802078</v>
+        <v>0.019584</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8912964</v>
+        <v>0.0211957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0055073</v>
+        <v>7.365E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0043242</v>
+        <v>0.0109276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0064389</v>
+        <v>0.0306271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0090642</v>
+        <v>0.0505807</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0119385</v>
+        <v>0.0839898</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0147153</v>
+        <v>0.1261477</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0138684</v>
+        <v>0.1808192</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0101421</v>
+        <v>0.2437494</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0110865</v>
+        <v>0.3151819</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0132268</v>
+        <v>0.3882262</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0139377</v>
+        <v>0.4798433</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0155083</v>
+        <v>0.5766317</v>
       </c>
       <c r="N4" t="n">
-        <v>0.016966</v>
+        <v>0.6792945</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0190062</v>
+        <v>0.786682</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0248369</v>
+        <v>0.8907204</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0214981</v>
+        <v>1.0336291</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0221038</v>
+        <v>1.1911559</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0246778</v>
+        <v>1.3209685</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0280166</v>
+        <v>1.4525826</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0283246</v>
+        <v>1.6475272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0131319</v>
+        <v>0.0026023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0102422</v>
+        <v>0.0319642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0122824</v>
+        <v>0.093878</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0177667</v>
+        <v>0.1820639</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0145023</v>
+        <v>0.3027017</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0081224</v>
+        <v>0.4623894</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0089795</v>
+        <v>0.6523937</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0106246</v>
+        <v>0.8643175</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0121541</v>
+        <v>1.1110696</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0151182</v>
+        <v>1.3857669</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0211208</v>
+        <v>1.6992295</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0212979</v>
+        <v>2.075907</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0179309</v>
+        <v>2.4265153</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0192166</v>
+        <v>2.8185654</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0209617</v>
+        <v>3.3228766</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0221602</v>
+        <v>3.7642884</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0242261</v>
+        <v>4.3212129</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0254785</v>
+        <v>6.3777027</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0267411</v>
+        <v>5.3571493</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0281012</v>
+        <v>6.0331973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0293972</v>
+        <v>5.235E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0334495</v>
+        <v>0.0018272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.014297</v>
+        <v>0.0032002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0285401</v>
+        <v>0.0046194</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0473128</v>
+        <v>0.0060078</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0717751</v>
+        <v>0.0074322</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1030971</v>
+        <v>0.0110867</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1391335</v>
+        <v>0.0104169</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1774231</v>
+        <v>0.0119849</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2246538</v>
+        <v>0.0132271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2796862</v>
+        <v>0.0170741</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3267681</v>
+        <v>0.0160552</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3812795</v>
+        <v>0.0176181</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4464668</v>
+        <v>0.0219219</v>
       </c>
       <c r="P6" t="n">
-        <v>0.521591</v>
+        <v>0.0282917</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5894679</v>
+        <v>0.0299573</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6702841</v>
+        <v>0.0282019</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7529635</v>
+        <v>0.0254558</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8378115</v>
+        <v>0.0278246</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9322268</v>
+        <v>0.0280838</v>
       </c>
     </row>
   </sheetData>
@@ -5438,324 +5438,324 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0018477</v>
+        <v>0.0019684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0206332</v>
+        <v>0.0233078</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0598006</v>
+        <v>0.0695847</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1197859</v>
+        <v>0.1455778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1970864</v>
+        <v>0.2456049</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3217586</v>
+        <v>0.3611381</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5365193</v>
+        <v>0.4730732</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6527202</v>
+        <v>0.5870666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7975612</v>
+        <v>0.7644905</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9894303</v>
+        <v>0.9668751</v>
       </c>
       <c r="L2" t="n">
-        <v>1.1106021</v>
+        <v>1.197749</v>
       </c>
       <c r="M2" t="n">
-        <v>1.331155</v>
+        <v>1.4463899</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5736166</v>
+        <v>1.7215852</v>
       </c>
       <c r="O2" t="n">
-        <v>1.855261</v>
+        <v>2.0531509</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1162465</v>
+        <v>2.3333172</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4373661</v>
+        <v>2.6395477</v>
       </c>
       <c r="R2" t="n">
-        <v>2.7436704</v>
+        <v>3.0099735</v>
       </c>
       <c r="S2" t="n">
-        <v>3.0878818</v>
+        <v>3.394476</v>
       </c>
       <c r="T2" t="n">
-        <v>3.489982</v>
+        <v>3.8232253</v>
       </c>
       <c r="U2" t="n">
-        <v>3.8955108</v>
+        <v>4.2259361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001491</v>
+        <v>7.108E-4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0153004</v>
+        <v>0.0026639</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0458757</v>
+        <v>0.0073578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0976385</v>
+        <v>0.007019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.167589</v>
+        <v>0.0091722</v>
       </c>
       <c r="G3" t="n">
-        <v>0.260254</v>
+        <v>0.0116821</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3716583</v>
+        <v>0.0143049</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5104249</v>
+        <v>0.0169894</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6693859</v>
+        <v>0.0189193</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8478305</v>
+        <v>0.0219296</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0441829</v>
+        <v>0.0238313</v>
       </c>
       <c r="M3" t="n">
-        <v>1.2558461</v>
+        <v>0.0265876</v>
       </c>
       <c r="N3" t="n">
-        <v>1.4808798</v>
+        <v>0.0285714</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7571528</v>
+        <v>0.0315792</v>
       </c>
       <c r="P3" t="n">
-        <v>2.0475433</v>
+        <v>0.0335861</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.335896</v>
+        <v>0.0366684</v>
       </c>
       <c r="R3" t="n">
-        <v>2.6136165</v>
+        <v>0.0376154</v>
       </c>
       <c r="S3" t="n">
-        <v>2.955798</v>
+        <v>0.0412468</v>
       </c>
       <c r="T3" t="n">
-        <v>3.3227523</v>
+        <v>0.043246</v>
       </c>
       <c r="U3" t="n">
-        <v>3.7088514</v>
+        <v>0.0467876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>7.237E-4</v>
+        <v>0.0083253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0027228</v>
+        <v>0.0208133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0050069</v>
+        <v>0.0232436</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0073679</v>
+        <v>0.0259511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009734</v>
+        <v>0.0425428</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0123106</v>
+        <v>0.0651988</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0151156</v>
+        <v>0.0896923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0178385</v>
+        <v>0.119334</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0200327</v>
+        <v>0.15388</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0227556</v>
+        <v>0.1899427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0252347</v>
+        <v>0.2358167</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0278164</v>
+        <v>0.281914</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0302441</v>
+        <v>0.3353896</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0337626</v>
+        <v>0.3960562</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0357951</v>
+        <v>0.4587502</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0386514</v>
+        <v>0.5270775</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0404222</v>
+        <v>0.5968188</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0451725</v>
+        <v>0.6652307</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0466148</v>
+        <v>0.752408</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0501306</v>
+        <v>0.8205556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>6.159E-4</v>
+        <v>0.002728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0023456</v>
+        <v>0.0355366</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0042241</v>
+        <v>0.1058784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0065005</v>
+        <v>0.2131556</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0081763</v>
+        <v>0.3561336</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0102576</v>
+        <v>0.5276678</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0127213</v>
+        <v>0.7427841</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0144971</v>
+        <v>1.0169476</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0166118</v>
+        <v>1.3007659</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0188394</v>
+        <v>1.6439343</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0209977</v>
+        <v>1.9960131</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0239053</v>
+        <v>2.4141504</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0254374</v>
+        <v>2.8650784</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0276496</v>
+        <v>3.3423887</v>
       </c>
       <c r="P5" t="n">
-        <v>0.029795</v>
+        <v>3.8392215</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0321484</v>
+        <v>4.3599858</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0343041</v>
+        <v>4.967473</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0368678</v>
+        <v>5.5823386</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0392494</v>
+        <v>6.2837938</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0425548</v>
+        <v>6.9118609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>4.157E-4</v>
+        <v>5.825E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0037365</v>
+        <v>0.0022917</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0104424</v>
+        <v>0.00416</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0206255</v>
+        <v>0.006131</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0338396</v>
+        <v>0.0081071</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0495789</v>
+        <v>0.0100858</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0699684</v>
+        <v>0.0121389</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0913433</v>
+        <v>0.0142228</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1183744</v>
+        <v>0.016702</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1517804</v>
+        <v>0.0191528</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1832307</v>
+        <v>0.0215986</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2207787</v>
+        <v>0.0236645</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2593404</v>
+        <v>0.0260667</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3019517</v>
+        <v>0.0282712</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3472962</v>
+        <v>0.0303345</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3968802</v>
+        <v>0.0327007</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4521949</v>
+        <v>0.0354211</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5090827</v>
+        <v>0.0368044</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5650697</v>
+        <v>0.039227</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6380151</v>
+        <v>0.042417</v>
       </c>
     </row>
   </sheetData>
